--- a/data/horarios/horarios-11-04.processed.xlsx
+++ b/data/horarios/horarios-11-04.processed.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Documents\GitHub\fcc-pregrado-horarios-y-matriculas-xlsx-to-json\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\dev\Documents\GitHub\fcc-pregrado-horarios-y-matriculas-xlsx-to-json\data\horarios\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5114B6DC-2118-4FF1-AEBD-AB47753D2BDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86990A8D-68CF-4575-9801-5E06902894DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11765" uniqueCount="997">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11849" uniqueCount="998">
   <si>
     <t>ciclo</t>
   </si>
@@ -3024,6 +3024,9 @@
   </si>
   <si>
     <t>aula_de_referencia</t>
+  </si>
+  <si>
+    <t>HUARMEY-402-M</t>
   </si>
 </sst>
 </file>
@@ -3044,7 +3047,7 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -3060,6 +3063,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -3089,7 +3098,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
@@ -3100,6 +3109,8 @@
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="0" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -3161,11 +3172,21 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A268EB5-7AC7-40B3-9B02-EC78E3B4C4F1}" name="Table1" displayName="Table1" ref="A1:Q1055" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
-  <autoFilter ref="A1:Q1055" xr:uid="{9A268EB5-7AC7-40B3-9B02-EC78E3B4C4F1}">
-    <filterColumn colId="2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9A268EB5-7AC7-40B3-9B02-EC78E3B4C4F1}" name="Table1" displayName="Table1" ref="A1:Q1062" totalsRowShown="0" headerRowDxfId="2" headerRowBorderDxfId="1" tableBorderDxfId="0">
+  <autoFilter ref="A1:Q1062" xr:uid="{9A268EB5-7AC7-40B3-9B02-EC78E3B4C4F1}">
+    <filterColumn colId="0">
       <filters>
-        <filter val="111551"/>
+        <filter val="3"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="1">
+      <filters>
+        <filter val="C"/>
+      </filters>
+    </filterColumn>
+    <filterColumn colId="5">
+      <filters>
+        <filter val="402-M"/>
       </filters>
     </filterColumn>
   </autoFilter>
@@ -3431,10 +3452,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q1055"/>
+  <dimension ref="A1:Q1062"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E532" sqref="E445:E532"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M1058" sqref="M1058"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3444,7 +3465,7 @@
     <col min="3" max="3" width="22" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="71.25" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="10.625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.5" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.5" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="18.375" customWidth="1"/>
     <col min="9" max="9" width="20" bestFit="1" customWidth="1"/>
@@ -20521,7 +20542,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="380" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A380">
         <v>3</v>
       </c>
@@ -20566,7 +20587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="381" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A381">
         <v>3</v>
       </c>
@@ -20611,7 +20632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="382" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A382">
         <v>3</v>
       </c>
@@ -20656,7 +20677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="383" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A383">
         <v>3</v>
       </c>
@@ -20701,7 +20722,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="384" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A384">
         <v>3</v>
       </c>
@@ -20746,7 +20767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="385" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A385">
         <v>3</v>
       </c>
@@ -20791,7 +20812,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="386" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A386">
         <v>3</v>
       </c>
@@ -20836,7 +20857,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="387" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A387">
         <v>3</v>
       </c>
@@ -20881,7 +20902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="388" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A388">
         <v>3</v>
       </c>
@@ -20926,7 +20947,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="389" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A389">
         <v>3</v>
       </c>
@@ -20971,7 +20992,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="390" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A390">
         <v>3</v>
       </c>
@@ -21016,7 +21037,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="391" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A391">
         <v>3</v>
       </c>
@@ -21061,7 +21082,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="392" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A392">
         <v>3</v>
       </c>
@@ -21106,7 +21127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="393" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A393">
         <v>3</v>
       </c>
@@ -21151,7 +21172,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="394" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:14" x14ac:dyDescent="0.3">
       <c r="A394">
         <v>3</v>
       </c>
@@ -23446,7 +23467,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="445" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A445">
         <v>5</v>
       </c>
@@ -23491,7 +23512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="446" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A446">
         <v>5</v>
       </c>
@@ -24031,7 +24052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="458" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A458">
         <v>5</v>
       </c>
@@ -24076,7 +24097,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="459" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A459">
         <v>5</v>
       </c>
@@ -24706,7 +24727,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="473" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A473">
         <v>5</v>
       </c>
@@ -24751,7 +24772,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="474" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A474">
         <v>5</v>
       </c>
@@ -25381,7 +25402,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="488" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A488">
         <v>5</v>
       </c>
@@ -25426,7 +25447,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="489" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A489">
         <v>5</v>
       </c>
@@ -26011,7 +26032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="502" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A502">
         <v>5</v>
       </c>
@@ -26056,7 +26077,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="503" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A503">
         <v>5</v>
       </c>
@@ -26686,7 +26707,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="517" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A517">
         <v>5</v>
       </c>
@@ -26731,7 +26752,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="518" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A518">
         <v>5</v>
       </c>
@@ -27316,7 +27337,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="531" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A531">
         <v>5</v>
       </c>
@@ -27361,7 +27382,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="532" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:14" hidden="1" x14ac:dyDescent="0.3">
       <c r="A532">
         <v>5</v>
       </c>
@@ -51632,6 +51653,391 @@
       </c>
       <c r="Q1055" s="6" t="s">
         <v>518</v>
+      </c>
+    </row>
+    <row r="1056" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1056" s="8">
+        <v>3</v>
+      </c>
+      <c r="B1056" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="C1056" s="8" t="s">
+        <v>559</v>
+      </c>
+      <c r="D1056" s="8" t="s">
+        <v>170</v>
+      </c>
+      <c r="E1056" s="8">
+        <v>8</v>
+      </c>
+      <c r="F1056" s="8" t="s">
+        <v>997</v>
+      </c>
+      <c r="G1056" s="8" t="s">
+        <v>587</v>
+      </c>
+      <c r="H1056" s="8" t="s">
+        <v>341</v>
+      </c>
+      <c r="I1056" s="8" t="s">
+        <v>588</v>
+      </c>
+      <c r="J1056" s="8" t="s">
+        <v>589</v>
+      </c>
+      <c r="K1056" s="8" t="s">
+        <v>963</v>
+      </c>
+      <c r="L1056" s="9" t="s">
+        <v>964</v>
+      </c>
+      <c r="M1056" s="8" t="s">
+        <v>964</v>
+      </c>
+      <c r="N1056" s="8" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="O1056" s="8" t="str">
+        <f>Table1[[#This Row],[codigo_de_asignatura]]</f>
+        <v>111353</v>
+      </c>
+      <c r="P1056" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q1056" s="8" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="1057" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1057" s="8">
+        <v>3</v>
+      </c>
+      <c r="B1057" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="C1057" s="8" t="s">
+        <v>564</v>
+      </c>
+      <c r="D1057" s="8" t="s">
+        <v>177</v>
+      </c>
+      <c r="E1057" s="8">
+        <v>8</v>
+      </c>
+      <c r="F1057" s="8" t="s">
+        <v>997</v>
+      </c>
+      <c r="G1057" s="8" t="s">
+        <v>624</v>
+      </c>
+      <c r="H1057" s="8" t="s">
+        <v>625</v>
+      </c>
+      <c r="I1057" s="8" t="s">
+        <v>405</v>
+      </c>
+      <c r="J1057" s="8" t="s">
+        <v>626</v>
+      </c>
+      <c r="K1057" s="8" t="s">
+        <v>963</v>
+      </c>
+      <c r="L1057" s="8" t="s">
+        <v>964</v>
+      </c>
+      <c r="M1057" s="8" t="s">
+        <v>964</v>
+      </c>
+      <c r="N1057" s="8" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="O1057" s="8" t="str">
+        <f>Table1[[#This Row],[codigo_de_asignatura]]</f>
+        <v>111354</v>
+      </c>
+      <c r="P1057" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q1057" s="8" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="1058" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1058" s="8">
+        <v>3</v>
+      </c>
+      <c r="B1058" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="C1058" s="8" t="s">
+        <v>569</v>
+      </c>
+      <c r="D1058" s="8" t="s">
+        <v>182</v>
+      </c>
+      <c r="E1058" s="8">
+        <v>8</v>
+      </c>
+      <c r="F1058" s="8" t="s">
+        <v>997</v>
+      </c>
+      <c r="G1058" s="8" t="s">
+        <v>616</v>
+      </c>
+      <c r="H1058" s="8" t="s">
+        <v>394</v>
+      </c>
+      <c r="I1058" s="8" t="s">
+        <v>617</v>
+      </c>
+      <c r="J1058" s="8" t="s">
+        <v>618</v>
+      </c>
+      <c r="K1058" s="8" t="s">
+        <v>963</v>
+      </c>
+      <c r="L1058" s="8" t="s">
+        <v>964</v>
+      </c>
+      <c r="M1058" s="8" t="s">
+        <v>964</v>
+      </c>
+      <c r="N1058" s="8" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="O1058" s="8" t="str">
+        <f>Table1[[#This Row],[codigo_de_asignatura]]</f>
+        <v>111355</v>
+      </c>
+      <c r="P1058" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q1058" s="8" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="1059" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1059" s="8">
+        <v>3</v>
+      </c>
+      <c r="B1059" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="C1059" s="8" t="s">
+        <v>574</v>
+      </c>
+      <c r="D1059" s="8" t="s">
+        <v>187</v>
+      </c>
+      <c r="E1059" s="8">
+        <v>8</v>
+      </c>
+      <c r="F1059" s="8" t="s">
+        <v>997</v>
+      </c>
+      <c r="G1059" s="8" t="s">
+        <v>627</v>
+      </c>
+      <c r="H1059" s="8" t="s">
+        <v>628</v>
+      </c>
+      <c r="I1059" s="8" t="s">
+        <v>629</v>
+      </c>
+      <c r="J1059" s="8" t="s">
+        <v>630</v>
+      </c>
+      <c r="K1059" s="8" t="s">
+        <v>963</v>
+      </c>
+      <c r="L1059" s="8" t="s">
+        <v>964</v>
+      </c>
+      <c r="M1059" s="8" t="s">
+        <v>964</v>
+      </c>
+      <c r="N1059" s="8" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="O1059" s="8" t="str">
+        <f>Table1[[#This Row],[codigo_de_asignatura]]</f>
+        <v>111352</v>
+      </c>
+      <c r="P1059" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q1059" s="8" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="1060" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1060" s="8">
+        <v>3</v>
+      </c>
+      <c r="B1060" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="C1060" s="8" t="s">
+        <v>579</v>
+      </c>
+      <c r="D1060" s="8" t="s">
+        <v>193</v>
+      </c>
+      <c r="E1060" s="8">
+        <v>8</v>
+      </c>
+      <c r="F1060" s="8" t="s">
+        <v>997</v>
+      </c>
+      <c r="G1060" s="8" t="s">
+        <v>631</v>
+      </c>
+      <c r="H1060" s="8" t="s">
+        <v>632</v>
+      </c>
+      <c r="I1060" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="J1060" s="8" t="s">
+        <v>633</v>
+      </c>
+      <c r="K1060" s="8" t="s">
+        <v>963</v>
+      </c>
+      <c r="L1060" s="8" t="s">
+        <v>964</v>
+      </c>
+      <c r="M1060" s="8" t="s">
+        <v>964</v>
+      </c>
+      <c r="N1060" s="8" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="O1060" s="8" t="str">
+        <f>Table1[[#This Row],[codigo_de_asignatura]]</f>
+        <v>111351</v>
+      </c>
+      <c r="P1060" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q1060" s="8" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="1061" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1061" s="8">
+        <v>3</v>
+      </c>
+      <c r="B1061" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="C1061" s="8" t="s">
+        <v>580</v>
+      </c>
+      <c r="D1061" s="8" t="s">
+        <v>199</v>
+      </c>
+      <c r="E1061" s="8">
+        <v>8</v>
+      </c>
+      <c r="F1061" s="8" t="s">
+        <v>997</v>
+      </c>
+      <c r="G1061" s="8" t="s">
+        <v>619</v>
+      </c>
+      <c r="H1061" s="8" t="s">
+        <v>620</v>
+      </c>
+      <c r="I1061" s="8" t="s">
+        <v>621</v>
+      </c>
+      <c r="J1061" s="8" t="s">
+        <v>622</v>
+      </c>
+      <c r="K1061" s="8" t="s">
+        <v>963</v>
+      </c>
+      <c r="L1061" s="8" t="s">
+        <v>964</v>
+      </c>
+      <c r="M1061" s="8" t="s">
+        <v>964</v>
+      </c>
+      <c r="N1061" s="8" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="O1061" s="8" t="str">
+        <f>Table1[[#This Row],[codigo_de_asignatura]]</f>
+        <v>111349</v>
+      </c>
+      <c r="P1061" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q1061" s="8" t="s">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="1062" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A1062" s="8">
+        <v>3</v>
+      </c>
+      <c r="B1062" s="8" t="s">
+        <v>479</v>
+      </c>
+      <c r="C1062" s="8" t="s">
+        <v>585</v>
+      </c>
+      <c r="D1062" s="8" t="s">
+        <v>203</v>
+      </c>
+      <c r="E1062" s="8">
+        <v>8</v>
+      </c>
+      <c r="F1062" s="8" t="s">
+        <v>997</v>
+      </c>
+      <c r="G1062" s="8" t="s">
+        <v>636</v>
+      </c>
+      <c r="H1062" s="8" t="s">
+        <v>637</v>
+      </c>
+      <c r="I1062" s="8" t="s">
+        <v>638</v>
+      </c>
+      <c r="J1062" s="8" t="s">
+        <v>639</v>
+      </c>
+      <c r="K1062" s="8" t="s">
+        <v>963</v>
+      </c>
+      <c r="L1062" s="8" t="s">
+        <v>964</v>
+      </c>
+      <c r="M1062" s="8" t="s">
+        <v>964</v>
+      </c>
+      <c r="N1062" s="8" t="b">
+        <f>NOT(ISBLANK(Table1[[#This Row],[codigo_de_asignatura_de_referencia]]))</f>
+        <v>1</v>
+      </c>
+      <c r="O1062" s="8" t="str">
+        <f>Table1[[#This Row],[codigo_de_asignatura]]</f>
+        <v>111350</v>
+      </c>
+      <c r="P1062" s="8">
+        <v>2</v>
+      </c>
+      <c r="Q1062" s="8" t="s">
+        <v>623</v>
       </c>
     </row>
   </sheetData>
